--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_codegym\Sprint-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB51121-341D-49CB-AEB6-1861B9310197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2BB484-FB69-4889-80C3-7CBF2A191856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
+    <workbookView xWindow="4755" yWindow="3315" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="image" sheetId="2" r:id="rId2"/>
     <sheet name="category" sheetId="3" r:id="rId3"/>
+    <sheet name="Food" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t>Bánh</t>
+  </si>
+  <si>
+    <t>compare_price</t>
+  </si>
+  <si>
+    <t>teen lop</t>
   </si>
 </sst>
 </file>
@@ -263,16 +270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +597,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="I9:J9"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CB75C-B10C-4CD9-9303-AE905EACEC19}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +691,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -699,7 +706,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -1056,11 +1063,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
@@ -1070,6 +1072,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1079,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C207919-402A-4B07-8950-22C9320C26E8}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1096,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1150,6 +1157,34 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C7D833-114A-4C80-96FE-CA08679FF42A}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_codegym\Sprint-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2BB484-FB69-4889-80C3-7CBF2A191856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A354EE2-AE45-4347-90AB-6C01899B287A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="3315" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
     <sheet name="image" sheetId="2" r:id="rId2"/>
     <sheet name="category" sheetId="3" r:id="rId3"/>
     <sheet name="Food" sheetId="4" r:id="rId4"/>
+    <sheet name="roles" sheetId="5" r:id="rId5"/>
+    <sheet name="Customer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -205,13 +207,259 @@
   </si>
   <si>
     <t>teen lop</t>
+  </si>
+  <si>
+    <t>id_roles</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>id_account</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>encrypt_password</t>
+  </si>
+  <si>
+    <t>flag_delete</t>
+  </si>
+  <si>
+    <t>username_account</t>
+  </si>
+  <si>
+    <t>van81@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$99tlxGF9KnBQuO.xhXLZDO1IAhsv/BsPzKfT04EyyDz9mTqXRj9.u</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Vân</t>
+  </si>
+  <si>
+    <t>customer1</t>
+  </si>
+  <si>
+    <t>huy11@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$yF3uicEDL4b2WGa7ahS6J.0mUyQx15asKTRYJ81HsE98uoSlsmphS</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Huy</t>
+  </si>
+  <si>
+    <t>customer2</t>
+  </si>
+  <si>
+    <t>hocchh@gmai.com</t>
+  </si>
+  <si>
+    <t>$2a$10$oCaX.gKP4QVkicj9ahcQFuPh6ggMMr03awIFQspdS4vpTdCYtYdUG</t>
+  </si>
+  <si>
+    <t>Hồ Hải Học</t>
+  </si>
+  <si>
+    <t>customer3</t>
+  </si>
+  <si>
+    <t>haminh5@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$HGGHS04DdBvoQ3oRoPL48ukIvuSyu0uSbK/YF5mQ/dRdu9jlhSUlu</t>
+  </si>
+  <si>
+    <t>Trần Hà Minh</t>
+  </si>
+  <si>
+    <t>customer4</t>
+  </si>
+  <si>
+    <t>hiuminh@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$OfeDvClrmxkvgzLqYsU11OnKq2.gSoJMTApY1Q5psoCzFeJ66F7za</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Hiếu</t>
+  </si>
+  <si>
+    <t>customer5</t>
+  </si>
+  <si>
+    <t>giangha@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$Cuasx7U4EtP4qkTqCcrBGuVB.Ng0P.R7rckFREQ0kmxDh/WzGyyMa</t>
+  </si>
+  <si>
+    <t>Hoàng Hà Giang</t>
+  </si>
+  <si>
+    <t>customer6</t>
+  </si>
+  <si>
+    <t>namthanh4@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$n5eKyesgvLxyJHhfpBjzve5Tbw.2v4.HVaI5/B/cyFQhLSq3tMkea</t>
+  </si>
+  <si>
+    <t>Hồ Nguyễn Nam Thành</t>
+  </si>
+  <si>
+    <t>customer7</t>
+  </si>
+  <si>
+    <t>phannhung@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$OTzHvGP3OwzTv.4vJKRrJOluJuLukHilFny5pnThGVcM9FpvHLcJe</t>
+  </si>
+  <si>
+    <t>Phan Thị Thùy Nhung</t>
+  </si>
+  <si>
+    <t>customer8</t>
+  </si>
+  <si>
+    <t>anhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$92Sjci7it1nte3hiDkJUSOO9QhBdd9XRHz05vP1aVJlMiajDHMdmK</t>
+  </si>
+  <si>
+    <t>Lê Đức Anh</t>
+  </si>
+  <si>
+    <t>customer9</t>
+  </si>
+  <si>
+    <t>baohothai@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$KSxLbgXP7JYiKgx6pgkJl.KvJzE5bu2PPhPZkm2/zNtt.PVf1SfLy</t>
+  </si>
+  <si>
+    <t>Hồ Thái Bảo</t>
+  </si>
+  <si>
+    <t>customer10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>annguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$10$HhchRqEQdJVhmnz76e3y7efrCre48R58wHBYi1DYvgQZjvlzntine</t>
+  </si>
+  <si>
+    <t>account_role</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Lại Văn Ngọc</t>
+  </si>
+  <si>
+    <t>id_customer</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>account_id_account</t>
+  </si>
+  <si>
+    <t>12 Trần Hưng Đạo, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>87 Lê Lợi, Quảng Trị</t>
+  </si>
+  <si>
+    <t>100 Hùng Vương, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>08 Tiểu la, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>534 Lê Duẩn, Huế</t>
+  </si>
+  <si>
+    <t>788 Nguyễn Tất Thành, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>52 Nguyễn Huệ, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>02 Đống Đa, Quảng Nam</t>
+  </si>
+  <si>
+    <t>01 Phan Đình Phùng, Hà Nội</t>
+  </si>
+  <si>
+    <t>675 Nguyễn Chí Thanh, Quảng Trị</t>
+  </si>
+  <si>
+    <t>0912415515</t>
+  </si>
+  <si>
+    <t>0912112222</t>
+  </si>
+  <si>
+    <t>0975112911</t>
+  </si>
+  <si>
+    <t>0398666999</t>
+  </si>
+  <si>
+    <t>0905686868</t>
+  </si>
+  <si>
+    <t>0378987668</t>
+  </si>
+  <si>
+    <t>0901567987</t>
+  </si>
+  <si>
+    <t>0913812632</t>
+  </si>
+  <si>
+    <t>0975342423</t>
+  </si>
+  <si>
+    <t>0898922134</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +467,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +486,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,10 +538,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,15 +554,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,7 +891,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CB75C-B10C-4CD9-9303-AE905EACEC19}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +985,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -706,7 +1000,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -719,7 +1013,7 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -734,7 +1028,7 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -747,7 +1041,7 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -762,7 +1056,7 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -775,7 +1069,7 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -790,7 +1084,7 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
@@ -803,7 +1097,7 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -818,7 +1112,7 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -831,7 +1125,7 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -846,7 +1140,7 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
@@ -859,7 +1153,7 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -874,7 +1168,7 @@
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -887,7 +1181,7 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -902,7 +1196,7 @@
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -915,7 +1209,7 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -930,7 +1224,7 @@
       <c r="E20">
         <v>9</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -942,7 +1236,7 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -956,7 +1250,7 @@
       <c r="E22">
         <v>10</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -968,7 +1262,7 @@
       <c r="E23">
         <v>11</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -982,7 +1276,7 @@
       <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25">
@@ -994,7 +1288,7 @@
       <c r="E25">
         <v>12</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1008,7 +1302,7 @@
       <c r="E26">
         <v>12</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -1020,7 +1314,7 @@
       <c r="E27">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1034,7 +1328,7 @@
       <c r="E28">
         <v>13</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -1063,6 +1357,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
@@ -1072,11 +1371,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,7 +1381,7 @@
   <dimension ref="C3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D10"/>
+      <selection activeCell="I21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1463,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,4 +1484,649 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C380A3AD-FF28-4DBD-B0A2-D28370FC6A92}">
+  <dimension ref="C3:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="9">
+        <v>3</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="9">
+        <v>4</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="9">
+        <v>6</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
+      <c r="G11" s="9">
+        <v>7</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="9">
+        <v>7</v>
+      </c>
+      <c r="P11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+      <c r="G12" s="9">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="9">
+        <v>8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="9">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="9">
+        <v>9</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="G14" s="9">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="9">
+        <v>10</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="G15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="9">
+        <v>11</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{11CC7825-45CA-4851-9BA3-2F3F3F8E93EE}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{7F4D8266-3B66-4E24-98B3-C6BA988875D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD37161-67EC-4E48-8707-E2C26B19E8DB}">
+  <dimension ref="C4:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_codegym\Sprint-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A354EE2-AE45-4347-90AB-6C01899B287A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D260DA-37E2-4D57-857C-374F9488AF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
+    <workbookView xWindow="28680" yWindow="6120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0C60A366-B985-451E-B931-40A0AE442565}"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="404">
   <si>
     <t>id</t>
   </si>
@@ -188,27 +188,15 @@
     <t>Rau lá</t>
   </si>
   <si>
-    <t>Củ quả</t>
-  </si>
-  <si>
     <t>Thịt các loại</t>
   </si>
   <si>
     <t>Cá các loại</t>
   </si>
   <si>
-    <t>Đồ hộp</t>
-  </si>
-  <si>
-    <t>Bánh</t>
-  </si>
-  <si>
     <t>compare_price</t>
   </si>
   <si>
-    <t>teen lop</t>
-  </si>
-  <si>
     <t>id_roles</t>
   </si>
   <si>
@@ -453,13 +441,825 @@
   </si>
   <si>
     <t>0898922134</t>
+  </si>
+  <si>
+    <t>id_food</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>HQ-0001</t>
+  </si>
+  <si>
+    <t>Mùa hè là thời gian lý tưởng để nhâm nhi nhiều loại trái cây và vải nằm trong số những trái ngon và bổ không thể bỏ qua. Vải là loại trái cây quý với “ngoại hình” đỏ thắm như dâu tây, bên trong là thịt mềm màu trắng đục. Giữa trưa hè nóng nực mà được tận hưởng hương vị ngọt ngào, thơm tho của trái vải thì thật chẳng có gì sướng bằng.</t>
+  </si>
+  <si>
+    <t>Vải thiều Thanh Hà</t>
+  </si>
+  <si>
+    <t>HQ-0002</t>
+  </si>
+  <si>
+    <t>Chọn quả có vỏ màu đỏ thẫm, da trơn và chắc, những quả lớn, không quá cứng hoặc quả mềm là vừa chín tới
+Lưu ý Quý khách hàng: để giữ quả đào tươi ngon lâu hơn, hãy bảo quản đào trong nhiệt độ khoảng 4 độ C</t>
+  </si>
+  <si>
+    <t>Đào đỏ Mỹ</t>
+  </si>
+  <si>
+    <t>HQ-0003</t>
+  </si>
+  <si>
+    <t>Dâu tây nói chung và dâu tây Đà Lạt nói riêng, từ lâu được biết tới là một loại trái cây rất tốt cho con người. Tạp chí Các nhân tố sinh học của Hà Lan đăng kết quả nghiên cứu cho thấy quả dâu tây là một thứ quả đặc biệt có lợi cho sức khỏe con người. Loại quả này chứa nhiều chất bổ hơn cả cà chua (dâu tây chứa chất chống oxy hóa nhiều gấp 10 lần cà chua), quả kiwi, hay hoa lơ xanh, những loại thực phẩm nổi tiếng có giá trị dinh dưỡng cao, được nhiều người ưa dùng. Nhưng giá trị lớn nhất của quả dâu tây mà các nhà khoa học ghi nhận được đó là tác dụng chữa bệnh.</t>
+  </si>
+  <si>
+    <t>Dâu tây Đà Lạt</t>
+  </si>
+  <si>
+    <t>Táo là loại cây ưa khí hậu khô, nóng và ít côn trùng và dịch bệnh. Táo GrannySmith (Táo Xanh) có nguồn gốc từ Úc du nhập vào Mỹ năm 1868. Táo có màu xanh lá, vị chua đậm, rất giòn, nhiều nước.</t>
+  </si>
+  <si>
+    <t>HQ-0004</t>
+  </si>
+  <si>
+    <t>Táo xanh Mỹ</t>
+  </si>
+  <si>
+    <t>HQ-0005</t>
+  </si>
+  <si>
+    <t>Theo phân tích khoa học, quả lê chứa protein, lipid, cenlulose, canxi, phốt pho, sắt, caroten, vitamin B1, B2, C, đường gluco, axít acetic... Việc ăn lê thường xuyên có tác dụng tốt trong điều trị bệnh cao huyết áp, tim mạch (dẫn tới váng đầu hoa mắt, tim đập loạn nhịp, ù tai), lao phổi, viêm phế quản cấp tính. Hàm lượng vitamin, đường khá phong phú trong quả lê có tác dụng bảo vệ gan, dưỡng gan và lợi tiêu hóa khá tốt.</t>
+  </si>
+  <si>
+    <t>Lê xanh Mỹ</t>
+  </si>
+  <si>
+    <t>HQ-0006</t>
+  </si>
+  <si>
+    <t>Đặc điểm: Cam Navel ruột vàng Úc vỏ màu vàng, ruột màu vàng đậm, vị ngọt thanh, không hạt, mọng nước. Thường dùng để ăn chứ không ép nước. Nên chọn quả sáng màu, da mịn, tròn trịa, cầm nặng tay.</t>
+  </si>
+  <si>
+    <t>Cam Nevel ruột vàng</t>
+  </si>
+  <si>
+    <t>HQ-0007</t>
+  </si>
+  <si>
+    <t>Quả óc chó giúp bà bầu bổ sung các chất dinh dưỡng thiết yếu nhất như Omega-3, Vitamin E, phốt pho và Axit Amin L-Arginne. Đặc biệt hàm lượng Omega-3 trong quả óc chó lớn hơn 3 lần trong cá hồi, giúp thúc đẩy sự phát triển đại não của thai nhi và trẻ nhỏ. Nếu các mẹ kiên trì ăn quả óc chó trong suốt thời gian thai kỳ, em bé sinh ra sẽ rất thông minh khỏe mạnh. </t>
+  </si>
+  <si>
+    <t>HQ-0008</t>
+  </si>
+  <si>
+    <t>Hạnh nhân rất tốt cho những người phòng ngừa các vấn đề về hàm lượng glucose và cholesterol. Thành phần trong hạt hạnh nhân giúp điều chỉnh, cân bằng 2 chất này, giúp phòng ngừa tiểu đường, mỡ máu, béo phì, thừa cân.
+Tác dụng của hạt hạnh nhân với giảm cân cũng là một lý do nhiều người đang trong quá trình giảm cân hoặc người thừa cân, béo phì sử dụng hạt hạnh nhân để vừa có thể giảm cơn thèm đồ ăn, vừa để giảm cân hoặc kiểm soát cân nặng.</t>
+  </si>
+  <si>
+    <t>HQ-0009</t>
+  </si>
+  <si>
+    <t>Nho Mỹ được biết đến là một trong những loại trái cây được ưa chuộng nhất trên thế giới với vẻ căng trong mọng nước và vị ngọt thanh đặc trưng. Tại đây, nho my được trồng theo những tiêu chuẩn cao nhất của sản phẩm, từ cây giống đến những container vận chuyển, đóng gói đều được các chuyên gia chú ý và tư vấn, để đảm bảo được chất lượng và hương vị của từng quả nho vừa được hái.</t>
+  </si>
+  <si>
+    <t>Nho Mỹ nhập khẩu</t>
+  </si>
+  <si>
+    <t>RL-0001</t>
+  </si>
+  <si>
+    <t>Rau xà lách búp mỡ của Bách hóa Xanh được nuôi trồng tại Lâm Đồng và đóng gói theo những tiêu chuẩn nghiêm ngặt, bảo đảm các tiêu chuẩn xanh - sach, chất lượng và an toàn với người dùng. Xà lách mỡ giòn, thơm, tươi mát nên rất thích hợp làm rau ăn kèm cho các món cuốn.</t>
+  </si>
+  <si>
+    <t>Xà Lách búp mỡ gói 500g</t>
+  </si>
+  <si>
+    <t>RL-0002</t>
+  </si>
+  <si>
+    <t>Rau húng cây có mùi thơm rất dễ chịu, đặc trưng và thường kết hợp với húng quế làm thành "bộ đôi rau nêm" góp mặt trong nhiều bữa ăn của gia đình Việt như: Phở bò, bò kho, hủ tiếu, tiết canh, các món luộc, nướng,... Ngoài ra, rau húng cây còn có thể dùng để hỗ trợ một số bệnh nhẹ như: cảm, ho,...</t>
+  </si>
+  <si>
+    <t>Rau húng cây bó 100g</t>
+  </si>
+  <si>
+    <t>RL-0003</t>
+  </si>
+  <si>
+    <t>Giá đậu xanh của được nuôi trồng và đóng gói theo những tiêu chuẩn nghiêm ngặt, bảo đảm các tiêu chuẩn xanh - sạch, chất lượng và an toàn với người dùng. Giá giòn, ngọt thường được dùng làm rau ăn kèm cho các món có nước như bún, phở hoặc nấu canh chua, xào với thịt.</t>
+  </si>
+  <si>
+    <t>Giá sống gói 200g</t>
+  </si>
+  <si>
+    <t>RL-0004</t>
+  </si>
+  <si>
+    <t>Rau diếp cá là loại rau thường được ăn sống để chấm thịt kho, cuốn bánh tráng,... Ngoài làm thực phẩm thì diếp cá còn là một vị thuốc đông y cực tốt để chữ trị một số bệnh nhẹ như táo bón, trĩ, hạ sốt,... Đặc biệt, diếp cá còn có thể giúp làm đẹp hiệu quả như: trị mụn, đẹp da,..</t>
+  </si>
+  <si>
+    <t>Rau diếp cá gói 100g</t>
+  </si>
+  <si>
+    <t>RL-0005</t>
+  </si>
+  <si>
+    <t>Rau an toàn 4KFarm với tiêu chí 4 KHÔNG, luôn ưu tiên bảo vệ sức khỏe người tiêu dùng. Hàm lượng chất xơ cao, chứa nhiều chất dinh dưỡng,Cải Ngọt 4KFarm là một trong những loại rau được ưa thích để chế biến những món canh rau ngon bổ dưỡng phù hợp với mọi lứa tuổi.</t>
+  </si>
+  <si>
+    <t>Cải ngọt 4KFam</t>
+  </si>
+  <si>
+    <t>Cải ngọt 4kfrarm</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/267906/bhx/cai-ngot-4kfarm-goi-500g-202210031633353182.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/267906/bhx/rau-cai-ngot-4kfarm-goi-500g-202112310830546938.jpg</t>
+  </si>
+  <si>
+    <t>RL-0006</t>
+  </si>
+  <si>
+    <t>Bí đỏ hồ lô hay bí đỏ hạt đậu, đây là giống bí có ruột rất đặc, ít hả ăn dẻo và ngọt. Bí hồ lô chứa nhiều chất dinh dưỡng và mang lại nhiều lợi ích cho sức khoẻ. Bí hồ lô có thể chế biến thành nhiều món ăn ngon như: sữa bí, canh bí, súp bí,... món nào cũng đều thơm ngon</t>
+  </si>
+  <si>
+    <t>Bí đỏ</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8785/291353/bhx/bi-do-ho-lo-1-trai-700g-900g-202209190824584623.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8785/291353/bhx/bi-do-ho-lo-1-trai-700g-900g-202209190824589637.jpg</t>
+  </si>
+  <si>
+    <t>RL-0007</t>
+  </si>
+  <si>
+    <t>Ớt hiểm có vị cay nồng, thơm, kích thích vị giác của người ăn, ớt là một trong những gia vị không thể thiếu trong nấu ăn cũng như mâm cơm của người Việt. Ớt hiểm luôn giữ được độ tươi mỗi ngày, được nuôi trồng theo quy trình nghiêm ngặt, bảo đảm các chỉ tiêu về an toàn và chất lượng.</t>
+  </si>
+  <si>
+    <t>Ớt đỏ</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/271666/bhx/ot-hiem-trai-tui-50g-202205181711028044.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/271666/bhx/ot-hiem-trai-tui-50g-202205181710099604.jpg</t>
+  </si>
+  <si>
+    <t>RL-0008</t>
+  </si>
+  <si>
+    <t>Cà chua được trồng ở Lâm Đồng là loại rau củ rất tốt cho sức khoẻ của người sử dụng, loại rau củ này không những giúp bổ sung chất dinh dưỡng cần thiết cho cơ thể mà chúng có giúp làm đẹp da cho phái nữ. Cà chua có thể ăn sống hoặc chế biến các món ăn cũng rất ngon.</t>
+  </si>
+  <si>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8785/271472/bhx/ca-chua-tui-1kg-10-12-trai-202205201608239644.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8785/271472/bhx/ca-chua-tui-1kg-10-12-trai-202205201607599163.jpg</t>
+  </si>
+  <si>
+    <t>CÀ chua</t>
+  </si>
+  <si>
+    <t>RL-0009</t>
+  </si>
+  <si>
+    <t>Rau muống hạt baby là rau non nên có độ giòn, ngọt hơn so với rau muống thông thường, quy trình trồng nghiêm ngặt, đảm bảo an toàn và chất lượng đến tay người tiêu dùng. Rau muống hạt baby có hàm lượng chất dinh dưỡng cao, đặc biệt là sắt và chất xơ, thường được dùng để luộc, xào,...</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>rau muống</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/223334/bhx/rau-muong-hat-baby-goi-300g-202205190829520564.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8820/223334/bhx/rau-muong-hat-baby-goi-300g-202211231328286109.jpg</t>
+  </si>
+  <si>
+    <t>Rau, củ sơ chế</t>
+  </si>
+  <si>
+    <t>SC-0001</t>
+  </si>
+  <si>
+    <t>Khoai sọ làm sạch gói 300g là loại củ quen thuộc được sử dụng nhiều trong nấu ăn như canh khoai sọ, bánh khoai sọ, khoai sọ chiên,....Khoai chứa nhiều dưỡng chất đặc biệt là Gluxit, nhiều năng lượng và có nhiều tác dụng như phòng chống suy nhượ cơ thể, ổn định đường huyết, giảm táo bón, giảm cholest...</t>
+  </si>
+  <si>
+    <t>Khoai sọ</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303389/bhx/khoai-so-lam-sach-goi-300g-202303081607139319.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303389/bhx/khoai-so-lam-sach-goi-300g-202303081607129317.jpg</t>
+  </si>
+  <si>
+    <t>Khoai sọ sơ chế</t>
+  </si>
+  <si>
+    <t>SC-0002</t>
+  </si>
+  <si>
+    <t>Sản phẩm gồm các loại đậu tươi ngon như đậu trắng, đậu đỏ, đậu ngự, đậu hà lan được làm sạch và đóng gói kín đáo tiện lợi. Đậu tươi hỗn hợp gói 100g hạt chắc, tươi ngon, phù hợp dùng nấu chè, nấu súp, cung cấp nhiều dinh dưỡng cho gia đình</t>
+  </si>
+  <si>
+    <t>Đậu tươi hỗn hợp</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303422/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303422/bhx/dau-tuoi-hon-hop-an-lac-goi-100g-202303040954442638.jpg</t>
+  </si>
+  <si>
+    <t>Đậu các loại</t>
+  </si>
+  <si>
+    <t>SC-0003</t>
+  </si>
+  <si>
+    <t>Canh chua là món canh có vị chua chua được tạo nên từ những loại rau và nguyên liệu, xen chút vị cay the của ớt cùng hương vị thơm béo của cá. Combo rau nấu canh chua khay 500g bao gồm: Giá, thơm, cà chua, đậu bắp, bạc hà, me, ớt, ngò ôm, ngò gai.</t>
+  </si>
+  <si>
+    <t>Combo rau nấu canh chua</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303415/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303415/bhx/combo-rau-nau-canh-chua-an-lac-khay-500g-202303040818081203.jpg</t>
+  </si>
+  <si>
+    <t>Combo canh chua</t>
+  </si>
+  <si>
+    <t>SC-0004</t>
+  </si>
+  <si>
+    <t>Đậu đỏ là loại đậu hạt quen thuộc sử dụng trong các món chè, xôi, cháo, súp, sữa,...giàu dinh dưỡng và tốt cho sức khỏe giúp kiểm soát đường huyết, tăng cường miễn dịch, phòng bệnh tim mạch, giảm cân,...Đậu đỏ tươi gói 100g hạt to, đều và chắc được tuyển đóng gói sạch sẽ tiện lợi sử dụng</t>
+  </si>
+  <si>
+    <t>Đậu đỏ tươi</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303431/bhx/dau-do-tuoi-an-lac-goi-100g-202303040958254256.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303431/bhx/dau-do-tuoi-an-lac-goi-100g-202303040958260560.jpg</t>
+  </si>
+  <si>
+    <t>SC-0005</t>
+  </si>
+  <si>
+    <t>Khoai mì là một trong những loại củ được trồng nhiều tại các vùng nông thôn miền núi, củ mì thon dài, nhiều tinh bột và chế biến được nhiều món như khoai mì hấp cốt dừa, bánh khoai mì, bánh tầm, bánh ít, canh khoai mì, khoai mì nướng,...Khoai mì được làm sạch tiện lợi, dễ sử dụng</t>
+  </si>
+  <si>
+    <t>Khoai mì</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303403/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303403/bhx/khoai-mi-lam-sach-an-lac-goi-300g-202303040903211193.jpg</t>
+  </si>
+  <si>
+    <t>SC-0006</t>
+  </si>
+  <si>
+    <t>Bí đỏ hay còn gọi là bí ngô, đây là loại củ rất ngon, có vị ngọt thanh, được sử dụng rất phổ biến trong nấu canh như Canh bí đỏ xương heo. Bí đỏ làm sạch khay 350g đảm bảo tươi ngon, rất giàu dinh dưỡng, nhất là Vitamin A và chất chống oxy hóa.</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303400/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303400/bhx/bi-do-lam-sach-an-lac-khay-350g-202303040809425877.jpg</t>
+  </si>
+  <si>
+    <t>SC-0007</t>
+  </si>
+  <si>
+    <t>Rau muống là một trong những loại rau phổ thông, xuất hiện rất phổ biến trong mâm cơm thường ngày của người dân Việt. Rau muống cắt khúc khay 300g đảm bảo tươi sạch, giúp ngừa táo bón, phòng ngừa bệnh thiếu máu và tiểu đường, tốt cho mắt và gan.</t>
+  </si>
+  <si>
+    <t>Rau muống sơ chế</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303388/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303388/bhx/rau-muong-cat-khuc-an-lac-khay-300g-202303040928514774.jpg</t>
+  </si>
+  <si>
+    <t>SC-0008</t>
+  </si>
+  <si>
+    <t>Củ hành tím làm sạch khay 100g sạch, tươi, xanh ngon và tốt cho sức khỏe. Là loại rau gia vị thơm ngon, giúp các món ăn thêm bắt vị đậm đà, kích thích vị giác tốt, còn chứa các dưỡng chất thiết yếu cần thiết cho cơ thể.</t>
+  </si>
+  <si>
+    <t>Hành tím</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303395/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303395/bhx/cu-hanh-tim-lam-sach-an-lac-khay-100g-202303040827266475.jpg</t>
+  </si>
+  <si>
+    <t>HÀnh tím</t>
+  </si>
+  <si>
+    <t>SC-0009</t>
+  </si>
+  <si>
+    <t>Tỏi xay hũ 50g sạch, tươi, xanh ngon và làm sẵn hợp vệ sinh. Là loại rau gia vị thơm ngon, giúp các món ăn thêm bắt vị cay nồng đậm đà, kích thích vị giác tốt, còn chứa vài dưỡng chất thiết yếu cần thiết cho cơ thể.</t>
+  </si>
+  <si>
+    <t>Tỏi xay</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303402/bhx/toi-xay-an-lac-hu-50g-202303040945258926.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/12439/303402/bhx/toi-xay-an-lac-hu-50g-202303040944551251.jpg</t>
+  </si>
+  <si>
+    <t>Bánh các loại</t>
+  </si>
+  <si>
+    <t>TB-0001</t>
+  </si>
+  <si>
+    <t>Thịt đùi có vị ngon tương tự phần mông bò và thường được cắt thành lát dày như bít-tết để nướng. Đùi bò nhập khẩu đông lạnh được cấp đông từ thịt bò tươi ngon là sản phẩm có xuất xứ rõ ràng nên đảm bảo an toàn thực phẩm và giàu chất dinh dưỡng</t>
+  </si>
+  <si>
+    <t>Thịt bò</t>
+  </si>
+  <si>
+    <t>Thịt bò nhập khẩu</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8139/297313/bhx/dui-bo-nhap-khau-dong-lanh-tui-500g-202212200910057635.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8139/297313/bhx/dui-bo-nhap-khau-dong-lanh-tui-500g-202212200908071419.jpg</t>
+  </si>
+  <si>
+    <t>TB-0002</t>
+  </si>
+  <si>
+    <t>Thịt bò Mỹ Thảo Tiến Foods là loại thịt bò đông lạnh được thái bằng máy tự động trong môi trường lạnh, tạo nên những khoanh thịt đỏ hồng. Thịt ba rọi bò Mỹ Thảo Tiến Foods khay 300g là phần thịt bò nằm ở phần bụng, có lớp nạc mỡ xen kẽ nhau, tạo nên độ mềm ngọt, thơm ngậy nhưng không ngấy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thịt ba rọi bò Thảo Tiến Foods </t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8400/213845/bhx/thit-ba-roi-bo-thao-tien-foods-khay-300g-202209101654252361.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8400/213845/bhx/sellingpoint.jpg</t>
+  </si>
+  <si>
+    <t>Thịt ba rọi bò</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>TB-0003</t>
+  </si>
+  <si>
+    <t>Là nguyên liệu phổ biến trong việc bếp núc hàng ngày, thịt bò là loại thịt giàu protein, thích hợp để bổ sung máu và tái tạo tế bào mô thích hợp với các món như bò xào rau muống. Bò Úc xào Pacow khay 250g tươi ngon được sản xuất ở Úc bởi Pacow, đã được kiểm duyệt chặc chẽ nên đảm bảo an toàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thịt bò Úc xào Pacow </t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8139/239162/bhx/bo-uc-mat-xao-pacow-khay-250g-202202111447535457.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8139/239162/bhx/than-bo-uc-pacow-khay-250g-202105121352192142.jpg</t>
+  </si>
+  <si>
+    <t>TH-0001</t>
+  </si>
+  <si>
+    <t>Cốt lết heo có xương G được đóng gói và bảo quản đạt các tiêu chuẩn về an toàn toàn thực phẩm. Bản thịt heo to, vân mỡ mỏng tạo độ béo nhẹ cho miếng thịt nên thường dùng để nướng, ram, chiên áp chảo.... Thịt heo G có thể dùng điện thoại quét mã QR trên tem sản phẩm để kiểm tra nguồn gốc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cốt lết heo </t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/241213/bhx/cot-let-heo-co-xuong-g-khay-300g-4-6-mieng-202203260859306872.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/241213/bhx/thit-vai-heo-g-kitchen-khay-300g-202106021400541576.jpg</t>
+  </si>
+  <si>
+    <t>TH-0002</t>
+  </si>
+  <si>
+    <t>Ba rọi heo của thương hiệu CP đạt các tiêu chuẩn về an toàn toàn thực phẩm, đảm bảo chất lượng, độ tươi ngon. Thịt heo mềm, vân nạc, mỡ rõ ràng nên rất phù hợp làm nguyên liệu để nấu thịt kho hột vịt. Thịt heo ba rọi có thể dùng điện thoại quét mã QR trên tem sản phẩm để kiểm tra nguồn gốc.</t>
+  </si>
+  <si>
+    <t>Ba rọi heo</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/228329/bhx/ba-roi-heo-cp-khay-500g-202202111520572889.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/228329/bhx/ba-roi-heo-khay-500g-202111262052218714.jpg</t>
+  </si>
+  <si>
+    <t>TH-0003</t>
+  </si>
+  <si>
+    <t>Thịt heo xay khay 300g được xay sẵn sạch sẽ và tiện dùng vô cùng. Thịt heo xay là nguyên liệu không thể thiếu để nấu được nhiều món ăn thơm ngon, đầy đủ dưỡng chất cho cả nhà. Thịt xay CP có thể tham khảo món thịt xay nhồi cà chua, đậu hũ nhồi thịt,....</t>
+  </si>
+  <si>
+    <t>Thịt heo xay</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/242937/bhx/thit-heo-xay-cp-khay-300g-202202111523032758.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8781/242937/bhx/thit-heo-xay-cp-khay-300g-202106230125288442.jpg</t>
+  </si>
+  <si>
+    <t>TG-0001</t>
+  </si>
+  <si>
+    <t>Ức gà tươi phi lê CP đạt các tiêu chuẩn về an toàn thực phẩm, đảm bảo về chất lượng, độ tươi và ngon. Thịt gà C.P xuất xứ rõ ràng, được dùng nhiều trong chế độ ăn uống khoa học như giảm cân, tăng cơ bắp. Ức gà có 2 mã QR để khách hàng có thể truy xuất nguồn gốc thịt, vô cùng an tâm.</t>
+  </si>
+  <si>
+    <t>Ức gà tươi phi lê</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/239600/bhx/uc-ga-tuoi-phi-le-khay-500g-1-3-mieng-202111261941162042.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/239600/bhx/uc-ga-tuoi-phi-le-khay-500g-1-3-mieng-202111261945014020.jpg</t>
+  </si>
+  <si>
+    <t>TG-0002</t>
+  </si>
+  <si>
+    <t>Má đùi gà CP đạt các tiêu chuẩn về an toàn thực phẩm, đảm bảo về chất lượng, độ tươi và ngon, xuất xứ rõ ràng. Thích hợp để nấu món má đùi gà nướng sa tế, gà rán, má đùi gà rim tiêu,... Có thể dùng điện thoại quét code QR trên sản phẩm để kiểm tra nguồn góc.</t>
+  </si>
+  <si>
+    <t>Má đùi gà C.P</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/226883/bhx/ma-dui-ga-cp-khay-500g-3-5-cai-202202111508100551.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/226883/bhx/ma-dui-ga-khay-500g-2-4-cai-202112021509051112.jpg</t>
+  </si>
+  <si>
+    <t>Đùi gà</t>
+  </si>
+  <si>
+    <t>TG-0003</t>
+  </si>
+  <si>
+    <t>Gà ta nguyên con có thịt dai ngon, mềm thơm chất lượng. Thịt gà có thể chế biến thành nhiều món ăn ngon, hấp dẫn cho gia đình và bạn bè thưởng thức. Gà ta được đảm bảo nguồn gốc xuất xứ rõ ràng.</t>
+  </si>
+  <si>
+    <t>Gà ta nguyên con</t>
+  </si>
+  <si>
+    <t>Gà ta</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/286856/bhx/ga-ta-nguyen-con-cp-goi-11kg-15kg-con-202208200817052394.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8790/286856/bhx/ga-ta-nguyen-con-cp-goi-11kg-15kg-con-202208240813303180.jpg</t>
+  </si>
+  <si>
+    <t>TC-0001</t>
+  </si>
+  <si>
+    <t>Tôm là nguồn dinh dưỡng dồi dào, cung cấp hàm lượng canxi và sắt rất cao cho chế độ ăn hằng ngày. Khi thưởng thức, bạn sẽ cảm nhận phần thịt ngọt nước và hơi dai. Ngoài ra, tôm càng với kích thước to nên thường được dùng để trang trí các món ăn trong bữa tiệc hoặc bữa cơm gia đình.</t>
+  </si>
+  <si>
+    <t>Tôm càng xanh</t>
+  </si>
+  <si>
+    <t>Tôm</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/249433/bhx/tom-cang-khay-500g-5-10-con-202207221127390424.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/249433/bhx/tom-cang-khay-500g-5-10-con-202207221125410729.jpg</t>
+  </si>
+  <si>
+    <t>TC-0002</t>
+  </si>
+  <si>
+    <t>Cua gạch được bán nguyên con, còn sống, đảm bảo độ tươi ngon, thịt cua chắc, ngọt thịt. Cua gạch là một trong những thực phẩm giàu dinh dưỡng, hương vị thơm ngon, hấp dẫn, được nhiều người yêu thích lựa chọn.</t>
+  </si>
+  <si>
+    <t>Cua đồng</t>
+  </si>
+  <si>
+    <t>Cua</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/304093/bhx/cua-gach-hop-1-con-230g-280g-202303110819533847.jpg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.dienmayxanh.com%2Fvao-bep%2F6-benh-can-tranh-xa-cua-bien-03242&amp;psig=AOvVaw2D5cWq0jwciR85tWn9DRNu&amp;ust=1678682915531000&amp;source=images&amp;cd=vfe&amp;ved=0CA8QjRxqFwoTCLD-1ajL1f0CFQAAAAAdAAAAABAE</t>
+  </si>
+  <si>
+    <t>TC-0003</t>
+  </si>
+  <si>
+    <t>Cá lóc hay còn được gọi là cá quả, là một nguyên liệu quen thuộc thường xuất hiện trên bàn ăn của mỗi gia đình. Cá lóc có thịt ngọt, rất ngon, thích hợp làm nhiều món ăn hấp dẫn như bánh canh cá lóc, canh chua cá lóc, cá lóc kho tộ,... đảm bảo sẽ khiến cả nhà mê tít</t>
+  </si>
+  <si>
+    <t>Cá lóc</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/300033/bhx/ca-loc-lam-sach-300g-450g-con-202301030813073233.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/300033/bhx/ca-loc-lam-sach-300g-450g-con-202301030813143653.jpg</t>
+  </si>
+  <si>
+    <t>Cá hường hay còn gọi là cá mùi, cá có thịt chắc ngọt, ít xương, cũng là loại cá phổ biến được nhiều bà nội trợ chọn mua. Cá hường giữ được độ tươi ngon từ cá tươi, giúp bảo quản lâu hơn mà thịt cá vẫn chắc, không bở mà vẫn giữ nguyên vị đậm đà.</t>
+  </si>
+  <si>
+    <t>TC-0004</t>
+  </si>
+  <si>
+    <t>Cá hường</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/287695/bhx/ca-huong-nguyen-con-lam-sach-khay-300g-350g-2-3-con-202208271455426729.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/287695/bhx/ca-huong-nguyen-con-lam-sach-khay-300g-350g-2-3-con-202208271452513598.jpg</t>
+  </si>
+  <si>
+    <t>TC-0005</t>
+  </si>
+  <si>
+    <t>Cá trác có tính lành, thơm ngon nên thích hợp cho gia đình nào đang có mẹ bầu hay người thân cần bổ sung omega 3 &amp; các chất dinh dưỡng cần thiết. Cá trác tươi ngon, giữ được độ săn chắc của cá biển, giúp bảo quản lâu hơn, mang đến vị đậm đà cho món ăn</t>
+  </si>
+  <si>
+    <t>Cá trác</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/248996/bhx/ca-trac-khay-500g-5-6-con-202302131539505182.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/248996/bhx/ca-trac-khay-500g-5-6-con-202302131535061970.jpg</t>
+  </si>
+  <si>
+    <t>TC-0006</t>
+  </si>
+  <si>
+    <t>Với đặc điểm chắc thịt và ít xương, cá hú là một trong những loại cá da trơn được nhiều người yêu thích và lựa chọn. Cá hú tại Bách hoá XANH luôn tươi ngon mỗi ngày, thích hợp chế biến nhiều món ăn ngon cho gia đình, với các món chiên, kho, nấu canh đậm đà.</t>
+  </si>
+  <si>
+    <t>Cá hú</t>
+  </si>
+  <si>
+    <t>CÁ hú</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/290278/bhx/ca-hu-nguyen-con-lam-sach-tui-08kg-11kg-202209100758467461.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/290278/bhx/ca-hu-nguyen-con-lam-sach-tui-08kg-11kg-202209100758472925.jpg</t>
+  </si>
+  <si>
+    <t>TC-0007</t>
+  </si>
+  <si>
+    <t>Cá basa phi lê được rút hết xương, thịt cá ngọt, bổ dưỡng và ai cũng có thể ăn được. Các món ngon không thể bỏ qua với cá basa phi lê như cá basa chiên giòn, cá basa nhúng giấm, ăn cùng với lẩu,... Cá được sơ chế và đóng gói tiện lợi, tiết kiệm thời gian đi chợ.</t>
+  </si>
+  <si>
+    <t>Cá basa phi lê</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/282082/bhx/ca-basa-phi-le-khay-300g-202205280945049849.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/282082/bhx/ca-basa-phi-le-khay-300g-202205280945061927.jpg</t>
+  </si>
+  <si>
+    <t>TC-0008</t>
+  </si>
+  <si>
+    <t>Đảm bảo tươi ngon, thịt ngọt và dai. Cá rô đồng thường dùng để chế biến những món ăn thơm ngon trong các bữa ăn gia đình như cá kho, canh chua,... Cá rô đồng Bách hoá XANH tươi ngon, được các bà nội trợ chọn mua mỗi ngày</t>
+  </si>
+  <si>
+    <t>Cá rô đồng</t>
+  </si>
+  <si>
+    <t>Rô đồng</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/304052/bhx/ca-ro-dong-tui-500g-2-4-con-202303100906415367.jpg</t>
+  </si>
+  <si>
+    <t>TC-0009</t>
+  </si>
+  <si>
+    <t>Cá bạc má có thịt trắng và chắc ngọt, dễ chế biến thành nhiều món ăn ngon, đây là một trong những loại cá biển quen thuộc với bà nội trợ. Cá bạc má vẫn giữ được độ tươi ngon từ cá tươi, giúp bảo quản lâu hơn mà thịt cá vẫn chắc, không bở mà vẫn giữ nguyên vị đậm đà.</t>
+  </si>
+  <si>
+    <t>Cá bạc má</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/248988/bhx/ca-bac-ma-tui-500g-202203121601130519.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.tgdd.vn/Products/Images/8782/248988/bhx/ca-bac-ma-tui-500g-202203121601173606.jpg</t>
+  </si>
+  <si>
+    <t>BT-0001</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/6.jpg?v=1458805693133</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/large/100/068/166/products/hamburger-nhahanghanoi.jpg?v=1458805693133</t>
+  </si>
+  <si>
+    <t>Ham bo go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburger được coi là sản phẩm đặc biệt với tiêu chí “ ngon-bổ-rẻ” đem đến cho khách hàng chất lượng tuyệt vời và an toàn cho sức khỏe. 
+Với nguồn năng lượng với hơn 1200 kcal dư sức cung cấp 120% nhu cầu năng lượng cho ngày làm việc. 
+Hamburger được bổ sung thêm 9 loại vitamin và khoáng chất.. 
+Bánh mì- món ăn rất quen thuộc đối với khẩu vị của mỗi người Việt và kết hợp với thịt bò đem lại hương vị đậm đà, ngon miệng. 
+Hàm lượng dinh dưỡng trong 1 khẩu phần bánh mì bò là 760kcal 
+Kết hợp với rau xanh tươi nguyên từ cánh đồng tươi mát. </t>
+  </si>
+  <si>
+    <t>Bánh Humburger</t>
+  </si>
+  <si>
+    <t>BT-0002</t>
+  </si>
+  <si>
+    <t>Khách hàng lựa chọn 1 trong 5 mẫu Cupcake xinh xắn tại Afamily Cake (cụ thể hình ảnh và tên từng loại xem chi tiết), 1 set bao gồm 8 chiếc bánh xinh xắn (khách hàng chọn tối thiểu là 4 chiếc/ 1 mẫu - 1 set tối đa được chọn 2 mẫu bánh).
+Toàn bộ nguyên liệu dùng trong làm bánh của cửa hàng đều nhập nhập từ thương hiệu uy tín tại Mỹ, Eu: Betty crocker, Wilton, Anchor và Dolphin. Khách hàng có thể lựa chọn 1 trong 2 vị Vani và Chocolate cho mỗi mẫu bánh của cửa hàng</t>
+  </si>
+  <si>
+    <t>Mochi kem tươi</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/c8.png?v=1458805733497</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/sgfd.png?v=1458805733497</t>
+  </si>
+  <si>
+    <t>BT-0003</t>
+  </si>
+  <si>
+    <t>Cupcake vani dâu</t>
+  </si>
+  <si>
+    <t>Toàn bộ nguyên liệu dùng trong làm bánh của cửa hàng đều nhập nhập từ thương hiệu uy tín tại Mỹ, Eu: Betty crocker, Wilton, Anchor và Dolphin. Khách hàng có thể lựa chọn 1 trong 2 vị Vani và Chocolate cho mỗi mẫu bánh của cửa hàng.</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/banhkemdau.png?v=1458805740273</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/sgfd-ff107a0d-e186-4d57-9e25-689365e6552a.png?v=1458805740273</t>
+  </si>
+  <si>
+    <t>BT-0004</t>
+  </si>
+  <si>
+    <t>Bánh vani</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/9.jpg?v=1458805749427</t>
+  </si>
+  <si>
+    <t>Bánh cupcake dễ thương đã trở thành một hiện tượng trong giới trẻ Việt hiện nay. Những chiếc bánh cupcake ngon miệng và vô cùng đẹp mắt đã làm bao trái tim yêu ẩm thực rung động. Cupcake có rất nhiều vị phù hợp với mọi lứa tuổi: bánh cupcake socola, bánh cupcake dâu tây sữa chua, bánh cupcake trà xanh… Ta có thể mua cupcake ở bất kì cửa hàng bánh nào. Hay bây giờ có rất nhiều người tự tay làm cupcake tại nhà để làm bánh sinh nhật tặng người thân và bạn bè. Tuy nhiên có những điều thú vị về cupcake mà không phải ai cũng biết. Hãy cùng nhau tìm hiểu nhé!</t>
+  </si>
+  <si>
+    <t>BT-0005</t>
+  </si>
+  <si>
+    <t>Cupcake bạc hà</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/4.png?v=1458805791557</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/ghf.png?v=1458805791557</t>
+  </si>
+  <si>
+    <t>Cupcake chocolate</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/12.jpg?v=1458805820437</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/sgfd-e6943efc-4d41-4ce5-b6d2-12fa67212c8b.png?v=1458805820437</t>
+  </si>
+  <si>
+    <t>Điểm qua một số mẫu bánh gato sinh nhật dễ thương làm quà tặng độc đáo cho bé cùng GATO nào.
+Loại bánh gato sinh nhật này ngoài làm quà sinh nhật cho bé, bạn có thể đặt những chiếc birthday cake dễ thương này làm quà sinh nhật cho cả những người “chưa muốn lớn” nữa :) Bánh sinh nhật loại này không chỉ đẹp mà ăn còn rất ngon!
+Quà sinh nhật cho gia đình – ngoài birthday cake – còn có hoa sinh nhật rất phổ biến. Bạn nghĩ sao nếu kết hợp 2 món quà tặng sinh nhật đó</t>
+  </si>
+  <si>
+    <t>BT-0006</t>
+  </si>
+  <si>
+    <t>BT-0007</t>
+  </si>
+  <si>
+    <t>Bánh kem bạc hà</t>
+  </si>
+  <si>
+    <t>Loại bánh gato sinh nhật này ngoài làm quà sinh nhật cho bé, bạn có thể đặt những chiếc birthday cake dễ thương này làm quà sinh nhật cho cả những người “chưa muốn lớn” nữa :) Bánh sinh nhật loại này không chỉ đẹp mà ăn còn rất ngon!
+Quà sinh nhật cho gia đình – ngoài birthday cake – còn có hoa sinh nhật rất phổ biến. Bạn nghĩ sao nếu kết hợp 2 món quà tặng sinh nhật đó lại nhỉ? Chắc chắn là vừa tiết kiệm, món quà sinh nhật lại độc đáo không thể chê rồi!</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/c6.png?v=1458805831470</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/ghf-62de09c0-7ba1-44db-b1fb-62d5facb8e92.png?v=1458805831470</t>
+  </si>
+  <si>
+    <t>BT-0008</t>
+  </si>
+  <si>
+    <t>Cupcake cherry</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/7.jpg?v=1458805841743</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/kem287135cdca.jpg?v=1458633412720</t>
+  </si>
+  <si>
+    <t>Bánh kem mứt</t>
+  </si>
+  <si>
+    <t>BT-0009</t>
+  </si>
+  <si>
+    <t>Hoa sinh nhật 2 trong một với cupcake – một chiếc happy birthday cake tuyệt vời để tặng quà sinh nhật cho bạn gái nhỉ?Một chút sáng tạo, cộng với sự giúp đỡ của… bánh quế và kem phủ, bạn đã có ngay cupcake giày cao gót làm quà sinh nhật bạn gái. Con gái không thể chê một món quà sinh nhật tâm lý và tuyệt vời thế này từ bạn trai của mình đâu.Hôm nay dọn tủ bếp thấy có cơ man nào là hạt khô: nho khô, cranberry khô, hạt óc chó, hạt điều, hạt dẻ cười, đậu phộng,… Ôi sao mà nhiều thế! Lần trước có khách đến mang ra nhấm nháp với bia mà sao vẫn chưa hết nhỉ!? Nhìn hạn sử dụng thì chỉ còn hai tuần nữa, thế là phải chưng dụng làm bánh ngọt để uống trà hoặc là cho vào túi để lúc đói nhấm nháp. Kiểu này lại sắp có cái eo bánh mỳ rồi đây, bởi làm bánh  ngọt thì không thể thiếu trứng và bơ ơ ơ ơ……</t>
+  </si>
+  <si>
+    <t>Bánh mứt kem</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/8.jpg?v=1458633412720</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/068/166/products/c9.png?v=1458633412720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +1274,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -514,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -537,12 +1348,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,12 +1377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -573,6 +1389,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -888,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F96BD9-04BA-48E0-9E3D-E7E0AD76E7CD}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -934,6 +1780,14 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +1800,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +1827,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C3">
@@ -985,12 +1839,12 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="21"/>
       <c r="C4">
         <v>2</v>
       </c>
@@ -1000,10 +1854,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="21"/>
       <c r="C5">
         <v>3</v>
       </c>
@@ -1013,12 +1867,12 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="21"/>
       <c r="C6">
         <v>4</v>
       </c>
@@ -1028,10 +1882,10 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="21"/>
       <c r="C7">
         <v>5</v>
       </c>
@@ -1041,12 +1895,12 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="21"/>
       <c r="C8">
         <v>6</v>
       </c>
@@ -1056,10 +1910,10 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="21"/>
       <c r="C9">
         <v>7</v>
       </c>
@@ -1069,12 +1923,12 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="21"/>
       <c r="C10">
         <v>8</v>
       </c>
@@ -1084,10 +1938,10 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="21"/>
       <c r="C11">
         <v>9</v>
       </c>
@@ -1097,12 +1951,12 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="21"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -1112,10 +1966,10 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="21"/>
       <c r="C13">
         <v>11</v>
       </c>
@@ -1125,12 +1979,12 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="21"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -1140,10 +1994,10 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="21"/>
       <c r="C15">
         <v>13</v>
       </c>
@@ -1153,12 +2007,12 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B16" s="21"/>
       <c r="C16">
         <v>14</v>
       </c>
@@ -1168,10 +2022,10 @@
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+      <c r="B17" s="21"/>
       <c r="C17">
         <v>15</v>
       </c>
@@ -1181,12 +2035,12 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="21"/>
       <c r="C18">
         <v>16</v>
       </c>
@@ -1196,10 +2050,10 @@
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="B19" s="21"/>
       <c r="C19">
         <v>17</v>
       </c>
@@ -1209,12 +2063,12 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="21"/>
       <c r="C20">
         <v>18</v>
       </c>
@@ -1224,7 +2078,7 @@
       <c r="E20">
         <v>9</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -1236,7 +2090,7 @@
       <c r="E21">
         <v>10</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="22" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1250,7 +2104,7 @@
       <c r="E22">
         <v>10</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -1262,7 +2116,7 @@
       <c r="E23">
         <v>11</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1276,7 +2130,7 @@
       <c r="E24">
         <v>11</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25">
@@ -1288,7 +2142,7 @@
       <c r="E25">
         <v>12</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1302,7 +2156,7 @@
       <c r="E26">
         <v>12</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -1314,7 +2168,7 @@
       <c r="E27">
         <v>13</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1328,7 +2182,7 @@
       <c r="E28">
         <v>13</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -1378,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C207919-402A-4B07-8950-22C9320C26E8}">
-  <dimension ref="C3:D10"/>
+  <dimension ref="C3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="H21:I21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -1426,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -1434,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -1442,15 +2296,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1460,29 +2306,3806 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C7D833-114A-4C80-96FE-CA08679FF42A}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:V132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G94" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:U111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="65.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="18">
+        <v>44990</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19">
+        <v>2</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="7">
+        <v>70000</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I4" s="19">
+        <v>700</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>2</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="R4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="19">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>300</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="7">
+        <v>65000</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="19">
+        <v>430</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="6">
+        <v>2</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="19">
+        <v>76000</v>
+      </c>
+      <c r="I7" s="19">
+        <v>200</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="6">
+        <v>4</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="6">
+        <v>2</v>
+      </c>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="19">
+        <v>25000</v>
+      </c>
+      <c r="I8" s="19">
+        <v>300</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="6">
+        <v>5</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="6">
+        <v>3</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="7">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="19">
+        <v>250000</v>
+      </c>
+      <c r="I9" s="19">
+        <v>250</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="6">
+        <v>6</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="6">
+        <v>3</v>
+      </c>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="2:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="19">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="19">
+        <v>300</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
+        <v>2</v>
+      </c>
+      <c r="M10" s="19">
+        <v>4</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="6">
+        <v>7</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="6">
+        <v>4</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="7">
+        <v>235000</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="19">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="19">
+        <v>240</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
+        <v>2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="6">
+        <v>8</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="6">
+        <v>4</v>
+      </c>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I12" s="19">
+        <v>300</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19">
+        <v>4</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="6">
+        <v>9</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="6">
+        <v>5</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="19">
+        <v>8000</v>
+      </c>
+      <c r="I13" s="19">
+        <v>50</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19">
+        <v>3</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="6">
+        <v>10</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="6">
+        <v>5</v>
+      </c>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="19">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="19">
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19">
+        <v>4</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="6">
+        <v>11</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="6">
+        <v>6</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="19">
+        <v>7000</v>
+      </c>
+      <c r="I15" s="19">
+        <v>200</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19">
+        <v>4</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="6">
+        <v>12</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="6">
+        <v>6</v>
+      </c>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9900</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="19">
+        <v>9900</v>
+      </c>
+      <c r="I16" s="19">
+        <v>200</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
+        <v>3</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="6">
+        <v>13</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="6">
+        <v>7</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16900</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="19">
+        <v>16900</v>
+      </c>
+      <c r="I17" s="19">
+        <v>150</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="6">
+        <v>14</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="6">
+        <v>7</v>
+      </c>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="19">
+        <v>7000</v>
+      </c>
+      <c r="I18" s="19">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19">
+        <v>4</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="6">
+        <v>15</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="6">
+        <v>8</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="7">
+        <v>39000</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="19">
+        <v>39000</v>
+      </c>
+      <c r="I19" s="19">
+        <v>200</v>
+      </c>
+      <c r="J19" s="19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="6">
+        <v>16</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="6">
+        <v>8</v>
+      </c>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="7">
+        <v>14500</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="19">
+        <v>14500</v>
+      </c>
+      <c r="I20" s="19">
+        <v>400</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19">
+        <v>3</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="6">
+        <v>17</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="6">
+        <v>9</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="19">
+        <v>20000</v>
+      </c>
+      <c r="I21" s="19">
+        <v>200</v>
+      </c>
+      <c r="J21" s="19">
+        <v>3</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19">
+        <v>2</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="6">
+        <v>18</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="6">
+        <v>9</v>
+      </c>
+      <c r="V21" s="22"/>
+    </row>
+    <row r="22" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="19">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="19">
+        <v>300</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19">
+        <v>4</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6">
+        <v>19</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="6">
+        <v>10</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I23" s="19">
+        <v>240</v>
+      </c>
+      <c r="J23" s="19">
+        <v>3</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
+        <v>4</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6">
+        <v>20</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="6">
+        <v>10</v>
+      </c>
+      <c r="V23" s="22"/>
+    </row>
+    <row r="24" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="7">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="19">
+        <v>35000</v>
+      </c>
+      <c r="I24" s="19">
+        <v>200</v>
+      </c>
+      <c r="J24" s="19">
+        <v>3</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
+        <v>4</v>
+      </c>
+      <c r="M24" s="19">
+        <v>1</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
+        <v>21</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="6">
+        <v>11</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="19">
+        <v>25000</v>
+      </c>
+      <c r="I25" s="19">
+        <v>300</v>
+      </c>
+      <c r="J25" s="19">
+        <v>3</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19">
+        <v>4</v>
+      </c>
+      <c r="M25" s="19">
+        <v>1</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6">
+        <v>22</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="6">
+        <v>11</v>
+      </c>
+      <c r="V25" s="22"/>
+    </row>
+    <row r="26" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I26" s="19">
+        <v>90</v>
+      </c>
+      <c r="J26" s="19">
+        <v>3</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
+        <v>4</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <v>23</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="6">
+        <v>12</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25000</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="19">
+        <v>25000</v>
+      </c>
+      <c r="I27" s="19">
+        <v>100</v>
+      </c>
+      <c r="J27" s="19">
+        <v>3</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
+        <v>4</v>
+      </c>
+      <c r="M27" s="19">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
+        <v>24</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="6">
+        <v>12</v>
+      </c>
+      <c r="V27" s="22"/>
+    </row>
+    <row r="28" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="7">
+        <v>35000</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I28" s="19">
+        <v>150</v>
+      </c>
+      <c r="J28" s="19">
+        <v>3</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19">
+        <v>4</v>
+      </c>
+      <c r="M28" s="19">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6">
+        <v>25</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="6">
+        <v>13</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I29" s="19">
+        <v>200</v>
+      </c>
+      <c r="J29" s="19">
+        <v>3</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19">
+        <v>4</v>
+      </c>
+      <c r="M29" s="19">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
+        <v>26</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="6">
+        <v>13</v>
+      </c>
+      <c r="V29" s="22"/>
+    </row>
+    <row r="30" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="19">
+        <v>200000</v>
+      </c>
+      <c r="I30" s="19">
+        <v>300</v>
+      </c>
+      <c r="J30" s="19">
+        <v>4</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
+        <v>2</v>
+      </c>
+      <c r="M30" s="19">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="S30">
+        <v>27</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="U30">
+        <v>14</v>
+      </c>
+      <c r="V30" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="7">
+        <v>220000</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" s="19">
+        <v>220000</v>
+      </c>
+      <c r="I31" s="19">
+        <v>200</v>
+      </c>
+      <c r="J31" s="19">
+        <v>4</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19">
+        <v>2</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="S31" s="6">
+        <v>28</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="U31">
+        <v>14</v>
+      </c>
+      <c r="V31" s="22"/>
+    </row>
+    <row r="32" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="7">
+        <v>99000</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="19">
+        <v>99000</v>
+      </c>
+      <c r="I32" s="19">
+        <v>250</v>
+      </c>
+      <c r="J32" s="19">
+        <v>4</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19">
+        <v>1</v>
+      </c>
+      <c r="M32" s="19">
+        <v>2</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="S32" s="6">
+        <v>29</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U32">
+        <v>15</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I33" s="19">
+        <v>200</v>
+      </c>
+      <c r="J33" s="19">
+        <v>4</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19">
+        <v>4</v>
+      </c>
+      <c r="M33" s="19">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="S33" s="6">
+        <v>30</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="U33">
+        <v>15</v>
+      </c>
+      <c r="V33" s="22"/>
+    </row>
+    <row r="34" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="7">
+        <v>94000</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" s="19">
+        <v>94000</v>
+      </c>
+      <c r="I34" s="19">
+        <v>230</v>
+      </c>
+      <c r="J34" s="19">
+        <v>4</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19">
+        <v>4</v>
+      </c>
+      <c r="M34" s="19">
+        <v>1</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="S34" s="6">
+        <v>31</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="U34">
+        <v>16</v>
+      </c>
+      <c r="V34" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="7">
+        <v>42700</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="H35" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I35" s="19">
+        <v>200</v>
+      </c>
+      <c r="J35" s="19">
+        <v>4</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19">
+        <v>4</v>
+      </c>
+      <c r="M35" s="19">
+        <v>1</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="S35" s="6">
+        <v>32</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="U35">
+        <v>16</v>
+      </c>
+      <c r="V35" s="22"/>
+    </row>
+    <row r="36" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="7">
+        <v>53000</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="19">
+        <v>53000</v>
+      </c>
+      <c r="I36" s="19">
+        <v>210</v>
+      </c>
+      <c r="J36" s="19">
+        <v>4</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19">
+        <v>2</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="S36" s="6">
+        <v>33</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="U36">
+        <v>17</v>
+      </c>
+      <c r="V36" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="19">
+        <v>80000</v>
+      </c>
+      <c r="I37" s="26">
+        <v>200</v>
+      </c>
+      <c r="J37" s="19">
+        <v>4</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <v>2</v>
+      </c>
+      <c r="M37" s="19">
+        <v>1</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="S37" s="6">
+        <v>34</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="U37">
+        <v>17</v>
+      </c>
+      <c r="V37" s="22"/>
+    </row>
+    <row r="38" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="7">
+        <v>120000</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H38" s="7">
+        <v>120000</v>
+      </c>
+      <c r="I38" s="26">
+        <v>140</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
+        <v>2</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="S38" s="6">
+        <v>35</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="U38">
+        <v>18</v>
+      </c>
+      <c r="V38" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="7">
+        <v>180000</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="7">
+        <v>180000</v>
+      </c>
+      <c r="I39" s="26">
+        <v>150</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <v>2</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1</v>
+      </c>
+      <c r="S39" s="6">
+        <v>36</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="U39">
+        <v>18</v>
+      </c>
+      <c r="V39" s="22"/>
+    </row>
+    <row r="40" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" s="7">
+        <v>300000</v>
+      </c>
+      <c r="I40" s="26">
+        <v>160</v>
+      </c>
+      <c r="J40" s="7">
+        <v>5</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <v>2</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="S40" s="6">
+        <v>37</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="U40">
+        <v>19</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="7">
+        <v>90000</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H41" s="7">
+        <v>90000</v>
+      </c>
+      <c r="I41" s="26">
+        <v>222</v>
+      </c>
+      <c r="J41" s="7">
+        <v>5</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
+        <v>2</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="S41" s="6">
+        <v>38</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="U41">
+        <v>19</v>
+      </c>
+      <c r="V41" s="22"/>
+    </row>
+    <row r="42" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I42" s="26">
+        <v>160</v>
+      </c>
+      <c r="J42" s="7">
+        <v>5</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
+        <v>2</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42" s="6">
+        <v>39</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="U42">
+        <v>20</v>
+      </c>
+      <c r="V42" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="7">
+        <v>150000</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H43" s="19">
+        <v>150000</v>
+      </c>
+      <c r="I43" s="26">
+        <v>150</v>
+      </c>
+      <c r="J43" s="19">
+        <v>5</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
+        <v>2</v>
+      </c>
+      <c r="M43" s="7">
+        <v>4</v>
+      </c>
+      <c r="S43" s="6">
+        <v>40</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43" s="22"/>
+    </row>
+    <row r="44" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="7">
+        <v>170000</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" s="19">
+        <v>170000</v>
+      </c>
+      <c r="I44" s="26">
+        <v>300</v>
+      </c>
+      <c r="J44" s="19">
+        <v>5</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
+        <v>2</v>
+      </c>
+      <c r="M44" s="7">
+        <v>4</v>
+      </c>
+      <c r="S44" s="6">
+        <v>41</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="U44">
+        <v>21</v>
+      </c>
+      <c r="V44" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>43</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H45" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I45" s="26">
+        <v>250</v>
+      </c>
+      <c r="J45" s="19">
+        <v>5</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
+        <v>4</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="S45" s="6">
+        <v>42</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U45">
+        <v>21</v>
+      </c>
+      <c r="V45" s="22"/>
+    </row>
+    <row r="46" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>44</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="H46" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I46" s="26">
+        <v>300</v>
+      </c>
+      <c r="J46" s="19">
+        <v>5</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
+        <v>2</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="S46" s="6">
+        <v>43</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="U46">
+        <v>22</v>
+      </c>
+      <c r="V46" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>45</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="7">
+        <v>56000</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H47" s="19">
+        <v>56000</v>
+      </c>
+      <c r="I47" s="26">
+        <v>120</v>
+      </c>
+      <c r="J47" s="19">
+        <v>5</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <v>2</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1</v>
+      </c>
+      <c r="S47" s="6">
+        <v>44</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U47">
+        <v>22</v>
+      </c>
+      <c r="V47" s="22"/>
+    </row>
+    <row r="48" spans="2:22" ht="120" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>46</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D48" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48" s="19">
+        <v>20000</v>
+      </c>
+      <c r="I48" s="26">
+        <v>150</v>
+      </c>
+      <c r="J48" s="19">
+        <v>6</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
+        <v>5</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1</v>
+      </c>
+      <c r="S48" s="6">
+        <v>45</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="U48">
+        <v>23</v>
+      </c>
+      <c r="V48" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>47</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="19">
+        <v>45000</v>
+      </c>
+      <c r="I49" s="26">
+        <v>150</v>
+      </c>
+      <c r="J49" s="19">
+        <v>6</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
+        <v>5</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49" s="6">
+        <v>46</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="U49">
+        <v>23</v>
+      </c>
+      <c r="V49" s="22"/>
+    </row>
+    <row r="50" spans="2:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H50" s="19">
+        <v>50000</v>
+      </c>
+      <c r="I50" s="26">
+        <v>200</v>
+      </c>
+      <c r="J50" s="19">
+        <v>6</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
+        <v>5</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1</v>
+      </c>
+      <c r="S50" s="6">
+        <v>47</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="U50">
+        <v>24</v>
+      </c>
+      <c r="V50" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>49</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H51" s="19">
+        <v>45000</v>
+      </c>
+      <c r="I51" s="19">
+        <v>230</v>
+      </c>
+      <c r="J51" s="19">
+        <v>6</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <v>5</v>
+      </c>
+      <c r="M51" s="7">
+        <v>1</v>
+      </c>
+      <c r="S51" s="6">
+        <v>48</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="U51">
+        <v>24</v>
+      </c>
+      <c r="V51" s="22"/>
+    </row>
+    <row r="52" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>50</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="7">
+        <v>55000</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" s="19">
+        <v>55000</v>
+      </c>
+      <c r="I52" s="19">
+        <v>130</v>
+      </c>
+      <c r="J52" s="19">
+        <v>6</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7">
+        <v>5</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1</v>
+      </c>
+      <c r="S52" s="6">
+        <v>49</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="U52">
+        <v>25</v>
+      </c>
+      <c r="V52" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>51</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I53" s="19">
+        <v>100</v>
+      </c>
+      <c r="J53" s="19">
+        <v>6</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7">
+        <v>5</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="S53" s="6">
+        <v>50</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="U53">
+        <v>25</v>
+      </c>
+      <c r="V53" s="22"/>
+    </row>
+    <row r="54" spans="2:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <v>52</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D54" s="7">
+        <v>95000</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="H54" s="19">
+        <v>95000</v>
+      </c>
+      <c r="I54" s="19">
+        <v>10</v>
+      </c>
+      <c r="J54" s="19">
+        <v>6</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
+        <v>5</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54" s="6">
+        <v>51</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="U54">
+        <v>26</v>
+      </c>
+      <c r="V54" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>53</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="H55" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I55" s="19">
+        <v>40</v>
+      </c>
+      <c r="J55" s="19">
+        <v>6</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
+        <v>4</v>
+      </c>
+      <c r="M55" s="7">
+        <v>1</v>
+      </c>
+      <c r="S55" s="6">
+        <v>52</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="U55">
+        <v>26</v>
+      </c>
+      <c r="V55" s="22"/>
+    </row>
+    <row r="56" spans="2:22" ht="120" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>54</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D56" s="7">
+        <v>60000</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="H56" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I56" s="19">
+        <v>60000</v>
+      </c>
+      <c r="J56" s="19">
+        <v>6</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7">
+        <v>5</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1</v>
+      </c>
+      <c r="S56" s="6">
+        <v>53</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="U56">
+        <v>27</v>
+      </c>
+      <c r="V56" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="S57" s="6">
+        <v>54</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="U57">
+        <v>27</v>
+      </c>
+      <c r="V57" s="22"/>
+    </row>
+    <row r="58" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="S58" s="6">
+        <v>55</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="U58">
+        <v>28</v>
+      </c>
+      <c r="V58" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="S59" s="6">
+        <v>56</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="U59">
+        <v>28</v>
+      </c>
+      <c r="V59" s="22"/>
+    </row>
+    <row r="60" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="S60" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="T60" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="U60">
+        <v>29</v>
+      </c>
+      <c r="V60" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="S61" s="16">
         <v>58</v>
       </c>
+      <c r="T61" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="U61">
+        <v>29</v>
+      </c>
+      <c r="V61" s="22"/>
+    </row>
+    <row r="62" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="S62" s="16">
+        <v>59</v>
+      </c>
+      <c r="T62" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="U62">
+        <v>30</v>
+      </c>
+      <c r="V62" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="S63" s="16">
+        <v>60</v>
+      </c>
+      <c r="T63" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="U63">
+        <v>30</v>
+      </c>
+      <c r="V63" s="22"/>
+    </row>
+    <row r="64" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="S64" s="16">
+        <v>61</v>
+      </c>
+      <c r="T64" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="U64">
+        <v>31</v>
+      </c>
+      <c r="V64" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="S65" s="16">
+        <v>62</v>
+      </c>
+      <c r="T65" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="U65">
+        <v>31</v>
+      </c>
+      <c r="V65" s="22"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="S66" s="16">
+        <v>63</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="U66">
+        <v>32</v>
+      </c>
+      <c r="V66" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="S67" s="16">
+        <v>64</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="U67">
+        <v>32</v>
+      </c>
+      <c r="V67" s="22"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="S68" s="16">
+        <v>65</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="U68">
+        <v>33</v>
+      </c>
+      <c r="V68" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="S69" s="16">
+        <v>66</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="U69">
+        <v>33</v>
+      </c>
+      <c r="V69" s="22"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="S70" s="16">
+        <v>67</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="U70">
+        <v>34</v>
+      </c>
+      <c r="V70" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="S71" s="16">
+        <v>68</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="U71">
+        <v>34</v>
+      </c>
+      <c r="V71" s="22"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="S72" s="16">
+        <v>69</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="U72">
+        <v>35</v>
+      </c>
+      <c r="V72" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="S73" s="16">
+        <v>70</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="U73">
+        <v>35</v>
+      </c>
+      <c r="V73" s="22"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="S74" s="16">
+        <v>71</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="U74">
+        <v>36</v>
+      </c>
+      <c r="V74" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="S75" s="16">
+        <v>72</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="U75">
+        <v>36</v>
+      </c>
+      <c r="V75" s="22"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="S76" s="16">
+        <v>73</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="U76">
+        <v>37</v>
+      </c>
+      <c r="V76" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="S77" s="16">
+        <v>74</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="U77">
+        <v>37</v>
+      </c>
+      <c r="V77" s="22"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="S78" s="16">
+        <v>75</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="U78">
+        <v>38</v>
+      </c>
+      <c r="V78" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="S79" s="16">
+        <v>76</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="U79">
+        <v>38</v>
+      </c>
+      <c r="V79" s="22"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="S80" s="16">
+        <v>77</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="U80">
+        <v>39</v>
+      </c>
+      <c r="V80" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="S81" s="16">
+        <v>78</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="U81">
+        <v>39</v>
+      </c>
+      <c r="V81" s="22"/>
+    </row>
+    <row r="82" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="S82" s="16">
+        <v>79</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="U82">
+        <v>40</v>
+      </c>
+      <c r="V82" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="S83" s="16">
+        <v>80</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="U83">
+        <v>40</v>
+      </c>
+      <c r="V83" s="22"/>
+    </row>
+    <row r="84" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="S84" s="16">
+        <v>81</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="U84">
+        <v>41</v>
+      </c>
+      <c r="V84" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="S85" s="16">
+        <v>82</v>
+      </c>
+      <c r="T85" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="U85">
+        <v>41</v>
+      </c>
+      <c r="V85" s="22"/>
+    </row>
+    <row r="86" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="S86" s="16">
+        <v>83</v>
+      </c>
+      <c r="T86" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="U86">
+        <v>42</v>
+      </c>
+      <c r="V86" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="S87" s="16">
+        <v>84</v>
+      </c>
+      <c r="T87" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="U87">
+        <v>42</v>
+      </c>
+      <c r="V87" s="22"/>
+    </row>
+    <row r="88" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="S88" s="16">
+        <v>85</v>
+      </c>
+      <c r="T88" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="U88">
+        <v>43</v>
+      </c>
+      <c r="V88" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="S89" s="16">
+        <v>86</v>
+      </c>
+      <c r="T89" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="U89">
+        <v>43</v>
+      </c>
+      <c r="V89" s="22"/>
+    </row>
+    <row r="90" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="S90" s="16">
+        <v>87</v>
+      </c>
+      <c r="T90" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="U90">
+        <v>44</v>
+      </c>
+      <c r="V90" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="S91" s="16">
+        <v>88</v>
+      </c>
+      <c r="T91" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="U91">
+        <v>44</v>
+      </c>
+      <c r="V91" s="22"/>
+    </row>
+    <row r="92" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="S92" s="16">
+        <v>89</v>
+      </c>
+      <c r="T92" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="U92">
+        <v>45</v>
+      </c>
+      <c r="V92" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="S93" s="16">
+        <v>90</v>
+      </c>
+      <c r="T93" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="U93">
+        <v>45</v>
+      </c>
+      <c r="V93" s="22"/>
+    </row>
+    <row r="94" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="S94" s="16">
+        <v>91</v>
+      </c>
+      <c r="T94" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="U94">
+        <v>46</v>
+      </c>
+      <c r="V94" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="S95" s="16">
+        <v>92</v>
+      </c>
+      <c r="T95" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="U95">
+        <v>46</v>
+      </c>
+      <c r="V95" s="22"/>
+    </row>
+    <row r="96" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="S96" s="16">
+        <v>93</v>
+      </c>
+      <c r="T96" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="U96">
+        <v>47</v>
+      </c>
+      <c r="V96" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="S97" s="16">
+        <v>94</v>
+      </c>
+      <c r="T97" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="U97">
+        <v>47</v>
+      </c>
+      <c r="V97" s="22"/>
+    </row>
+    <row r="98" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="S98" s="16">
+        <v>95</v>
+      </c>
+      <c r="T98" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="U98">
+        <v>48</v>
+      </c>
+      <c r="V98" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="S99" s="16">
+        <v>96</v>
+      </c>
+      <c r="T99" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="U99">
+        <v>48</v>
+      </c>
+      <c r="V99" s="22"/>
+    </row>
+    <row r="100" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="S100" s="16">
+        <v>97</v>
+      </c>
+      <c r="T100" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="U100">
+        <v>49</v>
+      </c>
+      <c r="V100" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="S101" s="16">
+        <v>98</v>
+      </c>
+      <c r="T101" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="U101">
+        <v>49</v>
+      </c>
+      <c r="V101" s="22"/>
+    </row>
+    <row r="102" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="S102" s="16">
+        <v>99</v>
+      </c>
+      <c r="T102" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="U102">
+        <v>50</v>
+      </c>
+      <c r="V102" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="S103" s="16">
+        <v>100</v>
+      </c>
+      <c r="T103" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="U103">
+        <v>50</v>
+      </c>
+      <c r="V103" s="22"/>
+    </row>
+    <row r="104" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="S104" s="16">
+        <v>101</v>
+      </c>
+      <c r="T104" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="U104">
+        <v>51</v>
+      </c>
+      <c r="V104" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="S105" s="16">
+        <v>102</v>
+      </c>
+      <c r="T105" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="U105">
+        <v>51</v>
+      </c>
+      <c r="V105" s="22"/>
+    </row>
+    <row r="106" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="S106" s="16">
+        <v>103</v>
+      </c>
+      <c r="T106" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="U106">
+        <v>52</v>
+      </c>
+      <c r="V106" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="S107" s="16">
+        <v>104</v>
+      </c>
+      <c r="T107" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="U107">
+        <v>52</v>
+      </c>
+      <c r="V107" s="22"/>
+    </row>
+    <row r="108" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="S108" s="16">
+        <v>105</v>
+      </c>
+      <c r="T108" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="U108">
+        <v>53</v>
+      </c>
+      <c r="V108" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="S109" s="16">
+        <v>106</v>
+      </c>
+      <c r="T109" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="U109">
+        <v>53</v>
+      </c>
+      <c r="V109" s="22"/>
+    </row>
+    <row r="110" spans="7:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="S110" s="16">
+        <v>107</v>
+      </c>
+      <c r="T110" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="U110">
+        <v>54</v>
+      </c>
+      <c r="V110" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="S111" s="16">
+        <v>108</v>
+      </c>
+      <c r="T111" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="U111">
+        <v>54</v>
+      </c>
+      <c r="V111" s="22"/>
+    </row>
+    <row r="112" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="T112" s="17"/>
+    </row>
+    <row r="113" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="T113" s="17"/>
+    </row>
+    <row r="114" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="T114" s="17"/>
+    </row>
+    <row r="115" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="T115" s="17"/>
+    </row>
+    <row r="116" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="T116" s="17"/>
+    </row>
+    <row r="117" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="T117" s="17"/>
+    </row>
+    <row r="118" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="T118" s="17"/>
+    </row>
+    <row r="119" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T119" s="17"/>
+    </row>
+    <row r="120" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T120" s="17"/>
+    </row>
+    <row r="121" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T121" s="17"/>
+    </row>
+    <row r="122" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T122" s="17"/>
+    </row>
+    <row r="123" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T123" s="17"/>
+    </row>
+    <row r="124" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T124" s="17"/>
+    </row>
+    <row r="125" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T125" s="17"/>
+    </row>
+    <row r="126" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T126" s="17"/>
+    </row>
+    <row r="127" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T127" s="17"/>
+    </row>
+    <row r="128" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="T128" s="17"/>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T129" s="17"/>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T130" s="17"/>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T131" s="17"/>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T132" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="V108:V109"/>
+    <mergeCell ref="V110:V111"/>
+    <mergeCell ref="V98:V99"/>
+    <mergeCell ref="V100:V101"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="V104:V105"/>
+    <mergeCell ref="V106:V107"/>
+    <mergeCell ref="V88:V89"/>
+    <mergeCell ref="V90:V91"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="V94:V95"/>
+    <mergeCell ref="V96:V97"/>
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="V80:V81"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="V86:V87"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="V74:V75"/>
+    <mergeCell ref="V76:V77"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="V66:V67"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="R4:R21"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="V54:V55"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T94" r:id="rId1" xr:uid="{0ED224AB-E111-47A4-A003-33C84D078CE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1507,11 +6130,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>63</v>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1519,363 +6142,363 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="N3" s="10" t="s">
-        <v>112</v>
+      <c r="N3" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F4" s="5"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="9" t="b">
+      <c r="J6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="N6" s="5"/>
+      <c r="O6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9">
+      <c r="P6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="9" t="s">
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="9" t="b">
+      <c r="J7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="9">
-        <v>2</v>
-      </c>
-      <c r="P6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9">
+      <c r="N7" s="5"/>
+      <c r="O7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="9">
-        <v>3</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>4</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="9" t="b">
+      <c r="H8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>84</v>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="9">
+      <c r="O8" s="7">
         <v>4</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F9" s="5"/>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>5</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="9" t="b">
+      <c r="H9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>88</v>
+      <c r="K9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="9">
+      <c r="O9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="9" t="b">
+      <c r="H10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>92</v>
+      <c r="K10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>6</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="9" t="b">
+      <c r="H11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>96</v>
+      <c r="K11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>7</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F12" s="5"/>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>8</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="9" t="b">
+      <c r="H12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>100</v>
+      <c r="K12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>8</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F13" s="5"/>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>9</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="9" t="b">
+      <c r="H13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>104</v>
+      <c r="K13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="9">
+      <c r="O13" s="7">
         <v>9</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>10</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="9" t="b">
+      <c r="H14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>108</v>
+      <c r="K14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <v>10</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F15" s="5"/>
-      <c r="G15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="G15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>11</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD37161-67EC-4E48-8707-E2C26B19E8DB}">
   <dimension ref="C4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
@@ -1907,222 +6530,222 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="E12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="9">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="9">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>10</v>
       </c>
     </row>
